--- a/my_info.xlsx
+++ b/my_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.mikayelyan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.mikayelyan\Desktop\MY-INFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2A069-A602-40B6-AF6A-954EBFB3B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F6C87-8BB8-4131-8B83-E54C8555DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2610" windowWidth="15090" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="4155" windowWidth="18585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,10 @@
     <t>ruben.mikayelyan@ifcmarkets.com</t>
   </si>
   <si>
-    <t>Hrm2ubny2Fg8A0P</t>
-  </si>
-  <si>
     <t>v%3^En49Vw0i</t>
+  </si>
+  <si>
+    <t>root442945</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,18 +1115,18 @@
         <v>83</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>83</v>
+      <c r="B7" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1134,8 +1134,9 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{CF58D901-C3C7-43DF-BDAC-16CFE7D19FAA}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{3BC0D052-94FD-4533-9834-FC4B293B7C2F}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{878D5C01-A49C-4D71-80BA-8720974FC97F}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{ED3C2CD5-032C-4919-9A20-B54F83A0ECB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/my_info.xlsx
+++ b/my_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.mikayelyan\Desktop\MY-INFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F6C87-8BB8-4131-8B83-E54C8555DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF739F-B8C4-41E3-A9CD-4B568F7A6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="4155" windowWidth="18585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18585" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>L_Name</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>ruben.mikayelyan@ifcmarkets.com</t>
-  </si>
-  <si>
-    <t>v%3^En49Vw0i</t>
   </si>
   <si>
     <t>root442945</t>
@@ -1075,7 +1072,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1123,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
